--- a/customboard/esc/logic_board/bom.xlsx
+++ b/customboard/esc/logic_board/bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -134,52 +134,61 @@
     <t xml:space="preserve">Your Instructions / Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3216X5R1E476M160AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 47uF 25V X5R 1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
+    <t xml:space="preserve">R5,R39,R8,R3,R23,R18,R24,R37,R42,R27,R11,R26,R36,R20,R15,R9,R30,R13,R16,R6,R1,R44,R40,R34,R29,R22,R32,R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0201FR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 10K OHM 0.05W 1% 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0201</t>
   </si>
   <si>
     <t xml:space="preserve">SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">C10, C8</t>
+    <t xml:space="preserve">R38,R31,R41,R17,R14,R4,R7,R10,R2,R21,R25,R43,R28,R35,R33,R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0201FR-071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 1K OHM 0.05W 1% 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3,U1,U7,U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMicroelectronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F051K8U6TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Microcontrollers - MCU ARM Cortex-M0 MCU 64Kb Flash 48MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFQFPN-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23,C5,C33,C9,C10,C18,C27,C32,C22,C31,C42,C43,C38,C11,C24,C44</t>
   </si>
   <si>
     <t xml:space="preserve">Murata</t>
   </si>
   <si>
-    <t xml:space="preserve">GCJ188R71E105KA01D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 1uF 25V X7R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11, C18, C22, C23, C24, C9</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRM033R61A105ME44D</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 1uF 10V X5R 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">0201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12, C13, C14, C15, C17, C21</t>
+    <t xml:space="preserve">C21,C2,C12,C3,C8,C35,C36,C1,C30,C14,C13,C17,C25,C15,C34,C41</t>
   </si>
   <si>
     <t xml:space="preserve">GRM033R61A104KE15D</t>
@@ -188,153 +197,36 @@
     <t xml:space="preserve">CAP CER 100nF 10V X5R 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1, Q2, Q3, Q4, Q5, Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQS140ELNW-T1_GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Channel 40 V 153A 119W Surface Mount, PowerPAK 1212-8SLW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerPAK 1212-8SLW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-7D100KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 100K OHM 0.067W 1% 0402</t>
+    <t xml:space="preserve">C4,C7,C26,C40,C29,C37,C20,C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL05A106MP5NUNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 10uF 10V X5R 0402</t>
   </si>
   <si>
     <t xml:space="preserve">0402</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-7D10KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10K OHM 0.067W 1% 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10, R19, R21, R4, R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0201FR-071KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1K OHM 0.05W 1% 0201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11, R20, R3, R5, R6, R8, R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0201FR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10K OHM 0.05W 1% 0201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12, R13, R14, R15, R16, R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-0720RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 20 OHM 0.067W 1% 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU2512FKNP50R001L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1m OHM 5W 1% 2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP7381-33SA-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO Voltage Regulator 100mA 3.3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
+    <t xml:space="preserve">C19,C6,C39,C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM033R61C103KA12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 10nF 16V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6,U8,U2,U4</t>
   </si>
   <si>
     <t xml:space="preserve">Texas instruments</t>
   </si>
   <si>
-    <t xml:space="preserve">INA180B1IDBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Sense Amplifiers 26V 350kHz current sense amplifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16, C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL05A106MP5NUNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 10uF 10V X5R 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM033R61C103KA12D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 10nF 16V X5R 0201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STMicroelectronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM32F051K8U6TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM Microcontrollers - MCU ARM Cortex-M0 MCU 64Kb Flash 48MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UFQFPN-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DRV8300DRGER</t>
   </si>
   <si>
@@ -342,15 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve">VQFN-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP7381-50SA-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO Voltage Regulator 100mA 5V</t>
   </si>
   <si>
     <t xml:space="preserve">Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!</t>
@@ -507,7 +390,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -540,11 +423,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,12 +431,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -668,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>661680</xdr:colOff>
+      <xdr:colOff>661320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -684,7 +563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1372320" cy="371160"/>
+          <a:ext cx="1371960" cy="370800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,8 +761,8 @@
   </sheetPr>
   <dimension ref="A2:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,25 +833,25 @@
       <c r="A7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="11"/>
@@ -981,25 +860,25 @@
       <c r="A8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="11"/>
@@ -1008,25 +887,25 @@
       <c r="A9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="11"/>
@@ -1035,25 +914,25 @@
       <c r="A10" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="11"/>
@@ -1062,25 +941,25 @@
       <c r="A11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="11"/>
@@ -1089,25 +968,25 @@
       <c r="A12" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="11"/>
@@ -1116,25 +995,25 @@
       <c r="A13" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="11"/>
@@ -1143,552 +1022,292 @@
       <c r="A14" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" s="16" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1729,12 +1348,12 @@
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
-    <hyperlink ref="A30" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
+    <hyperlink ref="A18" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
+    <hyperlink ref="A20" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1754,8 +1373,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C24 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1777,8 +1396,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C24 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
